--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Thbs1-Itgb3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H2">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I2">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J2">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N2">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O2">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P2">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q2">
-        <v>1342.424741675328</v>
+        <v>0.3015288480186666</v>
       </c>
       <c r="R2">
-        <v>12081.82267507795</v>
+        <v>2.713759632168</v>
       </c>
       <c r="S2">
-        <v>0.2884346850294666</v>
+        <v>0.0003486924340389605</v>
       </c>
       <c r="T2">
-        <v>0.2884346850294666</v>
+        <v>0.0003486924340389605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H3">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I3">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J3">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P3">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q3">
-        <v>1348.713701048177</v>
+        <v>24.58028155422622</v>
       </c>
       <c r="R3">
-        <v>12138.42330943359</v>
+        <v>221.222533988036</v>
       </c>
       <c r="S3">
-        <v>0.2897859369541049</v>
+        <v>0.02842500232009477</v>
       </c>
       <c r="T3">
-        <v>0.2897859369541049</v>
+        <v>0.02842500232009478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>149.656361</v>
+        <v>2.727484333333333</v>
       </c>
       <c r="H4">
-        <v>448.969083</v>
+        <v>8.182453000000001</v>
       </c>
       <c r="I4">
-        <v>0.5921360794347563</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="J4">
-        <v>0.5921360794347564</v>
+        <v>0.03096049453772388</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N4">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P4">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q4">
-        <v>64.76493758818432</v>
+        <v>1.891016710502333</v>
       </c>
       <c r="R4">
-        <v>582.8844382936589</v>
+        <v>17.019150394521</v>
       </c>
       <c r="S4">
-        <v>0.01391545745118497</v>
+        <v>0.002186799783590148</v>
       </c>
       <c r="T4">
-        <v>0.01391545745118498</v>
+        <v>0.002186799783590149</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J5">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N5">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O5">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P5">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q5">
-        <v>473.0276294979841</v>
+        <v>5.829862950149333</v>
       </c>
       <c r="R5">
-        <v>4257.248665481857</v>
+        <v>52.468766551344</v>
       </c>
       <c r="S5">
-        <v>0.1016351763259473</v>
+        <v>0.006741740021091713</v>
       </c>
       <c r="T5">
-        <v>0.1016351763259473</v>
+        <v>0.006741740021091714</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J6">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P6">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q6">
-        <v>475.2436580408098</v>
+        <v>475.2436580408097</v>
       </c>
       <c r="R6">
-        <v>4277.192922367289</v>
+        <v>4277.192922367288</v>
       </c>
       <c r="S6">
-        <v>0.1021113143729626</v>
+        <v>0.5495788179894832</v>
       </c>
       <c r="T6">
-        <v>0.1021113143729626</v>
+        <v>0.5495788179894832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.208649853730866</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="J7">
-        <v>0.2086498537308661</v>
+        <v>0.5986009007423507</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N7">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P7">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q7">
-        <v>22.82109674445578</v>
+        <v>36.56157057976866</v>
       </c>
       <c r="R7">
-        <v>205.389870700102</v>
+        <v>329.054135217918</v>
       </c>
       <c r="S7">
-        <v>0.00490336303195615</v>
+        <v>0.04228034273177586</v>
       </c>
       <c r="T7">
-        <v>0.00490336303195615</v>
+        <v>0.04228034273177587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H8">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J8">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.970048</v>
+        <v>0.110552</v>
       </c>
       <c r="N8">
-        <v>26.910144</v>
+        <v>0.331656</v>
       </c>
       <c r="O8">
-        <v>0.487108783009476</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="P8">
-        <v>0.4871087830094759</v>
+        <v>0.01126249561724847</v>
       </c>
       <c r="Q8">
-        <v>451.635867997632</v>
+        <v>3.607756510696001</v>
       </c>
       <c r="R8">
-        <v>4064.722811978688</v>
+        <v>32.469808596264</v>
       </c>
       <c r="S8">
-        <v>0.09703892165406211</v>
+        <v>0.004172063162117798</v>
       </c>
       <c r="T8">
-        <v>0.09703892165406212</v>
+        <v>0.004172063162117799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H9">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J9">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>27.036212</v>
       </c>
       <c r="O9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724333</v>
       </c>
       <c r="P9">
-        <v>0.489390778604016</v>
+        <v>0.9181055646724334</v>
       </c>
       <c r="Q9">
-        <v>453.7516809270138</v>
+        <v>294.1001214136254</v>
       </c>
       <c r="R9">
-        <v>4083.765128343124</v>
+        <v>2646.901092722628</v>
       </c>
       <c r="S9">
-        <v>0.09749352727694857</v>
+        <v>0.3401017443628553</v>
       </c>
       <c r="T9">
-        <v>0.09749352727694859</v>
+        <v>0.3401017443628554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>50.34932566666667</v>
+        <v>32.63402300000001</v>
       </c>
       <c r="H10">
-        <v>151.047977</v>
+        <v>97.90206900000001</v>
       </c>
       <c r="I10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="J10">
-        <v>0.1992140668343777</v>
+        <v>0.3704386047199253</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4327576666666667</v>
+        <v>0.6933189999999999</v>
       </c>
       <c r="N10">
-        <v>1.298273</v>
+        <v>2.079957</v>
       </c>
       <c r="O10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031816</v>
       </c>
       <c r="P10">
-        <v>0.02350043838650813</v>
+        <v>0.07063193971031817</v>
       </c>
       <c r="Q10">
-        <v>21.78905669374678</v>
+        <v>22.625788192337</v>
       </c>
       <c r="R10">
-        <v>196.101510243721</v>
+        <v>203.632093731033</v>
       </c>
       <c r="S10">
-        <v>0.004681617903367004</v>
+        <v>0.02616479719495214</v>
       </c>
       <c r="T10">
-        <v>0.004681617903367005</v>
+        <v>0.02616479719495215</v>
       </c>
     </row>
   </sheetData>
